--- a/biology/Botanique/Sansevieria_hallii/Sansevieria_hallii.xlsx
+++ b/biology/Botanique/Sansevieria_hallii/Sansevieria_hallii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria hallii, également appelée Dracaena hallii[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria hallii, également appelée Dracaena hallii, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante succulente, Sansevieria hallii est une espèce de sansevières à longues feuilles de couleur bleu-vert avec un repliement plus ou moins marqué. Elle est proche de Sansevieria sinus-simiorum.
 Elle prend le nom du botaniste sud-africain Harry Hall (1906–1986).
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique australe orientale, présente au Mozambique et au Zimbabwe[2], et a été identifiée comme espèce à part entière en 1996 par Juan Chahinian[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique australe orientale, présente au Mozambique et au Zimbabwe, et a été identifiée comme espèce à part entière en 1996 par Juan Chahinian.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
